--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/ALABAMA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/ALABAMA_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1080"/>
+  <dimension ref="A1:D1074"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C29">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C32">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C34">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C39">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C58">
@@ -1148,7 +1148,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C59">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C62">
@@ -1278,7 +1278,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C69">
@@ -1291,7 +1291,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C70">
@@ -1634,7 +1634,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C96">
@@ -1951,7 +1951,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C120">
@@ -2060,7 +2060,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2408,7 +2408,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C154">
@@ -2460,7 +2460,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C158">
@@ -2564,12 +2564,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C166">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C168">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C169">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C172">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C177">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C179">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C183">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C188">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C189">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C198">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C203">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C217">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C223">
@@ -3323,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C224">
@@ -3336,7 +3336,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C225">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C236">
@@ -3497,7 +3497,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C237">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C243">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C247">
@@ -3744,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C256">
@@ -3770,7 +3770,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C258">
@@ -3796,7 +3796,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C260">
@@ -3809,7 +3809,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C261">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C262">
@@ -3848,7 +3848,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C264">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C270">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C274">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C277">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C279">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C282">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C283">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C284">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C285">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C289">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C290">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C293">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C294">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C300">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C301">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C303">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C304">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C306">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C320">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C322">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C324">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C325">
@@ -4698,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C329">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C342">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C343">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C351">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C354">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C357">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C358">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C359">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C361">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C362">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C363">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C366">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C370">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C374">
@@ -5301,7 +5301,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C375">
@@ -5340,7 +5340,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C378">
@@ -5353,7 +5353,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C379">
@@ -5379,7 +5379,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C381">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C382">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C386">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C387">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C398">
@@ -5670,7 +5670,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C403">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C406">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C413">
@@ -5813,7 +5813,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C414">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C416">
@@ -5865,7 +5865,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C418">
@@ -5878,7 +5878,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C419">
@@ -5891,7 +5891,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C420">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C421">
@@ -5917,7 +5917,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C422">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C423">
@@ -5956,7 +5956,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C425">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C431">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C432">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C434">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C435">
@@ -6112,7 +6112,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C437">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C438">
@@ -6364,7 +6364,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C456">
@@ -7040,7 +7040,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C508">
@@ -7305,7 +7305,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C528">
@@ -7409,7 +7409,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C536">
@@ -7448,7 +7448,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C539">
@@ -7609,7 +7609,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C551">
@@ -7796,7 +7796,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C565">
@@ -7809,7 +7809,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C566">
@@ -7848,7 +7848,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C569">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C572">
@@ -7918,7 +7918,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C574">
@@ -7957,7 +7957,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C577">
@@ -7970,7 +7970,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C578">
@@ -8022,7 +8022,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C582">
@@ -8035,7 +8035,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C583">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C584">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C585">
@@ -8074,7 +8074,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C586">
@@ -8087,7 +8087,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C587">
@@ -8139,7 +8139,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C591">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C592">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C594">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C595">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C597">
@@ -8230,7 +8230,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C598">
@@ -8360,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C608">
@@ -8503,7 +8503,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C619">
@@ -8516,7 +8516,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C620">
@@ -8529,7 +8529,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C621">
@@ -8763,7 +8763,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C639">
@@ -9452,7 +9452,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C692">
@@ -9530,7 +9530,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C698">
@@ -9543,7 +9543,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C699">
@@ -9556,7 +9556,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C700">
@@ -9569,7 +9569,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C701">
@@ -9582,7 +9582,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C702">
@@ -9595,7 +9595,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C703">
@@ -9621,7 +9621,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C705">
@@ -9634,7 +9634,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C706">
@@ -9647,7 +9647,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C707">
@@ -9660,7 +9660,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerrero</t>
+          <t>Yutanduchi De Guerrero</t>
         </is>
       </c>
       <c r="C708">
@@ -9834,7 +9834,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C721">
@@ -9847,7 +9847,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C722">
@@ -9964,7 +9964,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C731">
@@ -10081,7 +10081,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C740">
@@ -10133,7 +10133,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C744">
@@ -10159,7 +10159,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C746">
@@ -10289,7 +10289,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C756">
@@ -10315,7 +10315,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C758">
@@ -10328,7 +10328,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C759">
@@ -10393,7 +10393,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C764">
@@ -10406,7 +10406,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C765">
@@ -10432,7 +10432,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C767">
@@ -10471,7 +10471,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C770">
@@ -10671,7 +10671,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C785">
@@ -10697,7 +10697,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C787">
@@ -10749,7 +10749,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C791">
@@ -10775,7 +10775,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C793">
@@ -10814,7 +10814,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C796">
@@ -10954,7 +10954,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C806">
@@ -11058,7 +11058,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C814">
@@ -11149,7 +11149,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C821">
@@ -11240,7 +11240,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C828">
@@ -11266,7 +11266,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C830">
@@ -11279,7 +11279,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C831">
@@ -11292,7 +11292,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C832">
@@ -11305,7 +11305,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C833">
@@ -11318,7 +11318,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C834">
@@ -11762,7 +11762,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C867">
@@ -12105,7 +12105,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C893">
@@ -12201,7 +12201,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C900">
@@ -12279,7 +12279,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C906">
@@ -12292,7 +12292,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C907">
@@ -12518,7 +12518,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C924">
@@ -12544,7 +12544,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C926">
@@ -12661,7 +12661,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C935">
@@ -12700,7 +12700,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C938">
@@ -12726,7 +12726,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C940">
@@ -12830,7 +12830,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C948">
@@ -13051,7 +13051,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C965">
@@ -13064,7 +13064,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C966">
@@ -13077,7 +13077,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C967">
@@ -13090,7 +13090,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C968">
@@ -13194,7 +13194,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C976">
@@ -13246,7 +13246,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C980">
@@ -13298,7 +13298,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C984">
@@ -13311,7 +13311,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C985">
@@ -13350,7 +13350,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C988">
@@ -13428,7 +13428,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C994">
@@ -13467,7 +13467,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C997">
@@ -13480,7 +13480,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C998">
@@ -13519,7 +13519,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1001">
@@ -13597,7 +13597,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1007">
@@ -13623,7 +13623,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1009">
@@ -13779,7 +13779,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1021">
@@ -13935,7 +13935,7 @@
     <row r="1033">
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1033">
@@ -14309,7 +14309,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1061">
@@ -14426,7 +14426,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1070">
@@ -14486,41 +14486,6 @@
       </c>
       <c r="D1074">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1076">
-      <c r="A1076" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="1077">
-      <c r="A1077" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1078">
-      <c r="A1078" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1079">
-      <c r="A1079" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1080">
-      <c r="A1080" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
